--- a/Config/Datas/tables.xlsx
+++ b/Config/Datas/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>##</t>
   </si>
@@ -25,7 +25,7 @@
     <t>value_type</t>
   </si>
   <si>
-    <t>define_from_excel</t>
+    <t>define_from_file</t>
   </si>
   <si>
     <t>input</t>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>StartServer/StartMachine.xlsx</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>StartServer.TbStartProcess</t>
@@ -183,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,6 +208,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -212,7 +230,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,114 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -356,181 +359,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +544,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,21 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,56 +644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1126,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1252,7 +1255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:5">
+    <row r="5" customFormat="1" spans="2:8">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -1265,94 +1268,106 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
